--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_VietGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_VietGlobal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>Thay thế Module SIM868</t>
+  </si>
+  <si>
+    <t>ID mới 868183033792040</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1255,14 +1267,16 @@
       <c r="V5" s="74"/>
       <c r="W5" s="74"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -1273,7 +1287,9 @@
       <c r="G6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="I6" s="60" t="s">
         <v>72</v>
       </c>
@@ -1290,10 +1306,18 @@
         <v>76</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
@@ -1742,7 +1766,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,7 +1947,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,7 +2267,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_VietGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_VietGlobal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>Tuấn</t>
+  </si>
+  <si>
+    <t>18/11/2020</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>ID mới 868183033792115</t>
   </si>
 </sst>
 </file>
@@ -702,6 +711,36 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -717,40 +756,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1091,43 +1100,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1172,58 +1181,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1248,24 +1257,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1321,43 +1330,71 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>81</v>
+      </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52">
+        <v>868183034515283</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="G7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="78"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1381,12 +1418,12 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="78"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1410,12 +1447,12 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1439,12 +1476,12 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -1468,12 +1505,12 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -1497,14 +1534,14 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1528,12 +1565,12 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1557,12 +1594,12 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="78"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1586,12 +1623,12 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="78"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -1615,12 +1652,12 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -1647,7 +1684,7 @@
       <c r="V17" s="64"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -1674,7 +1711,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -1705,7 +1742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -1737,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -1766,10 +1803,10 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -1801,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -1828,7 +1865,7 @@
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
     </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -1855,7 +1892,7 @@
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
     </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -1886,7 +1923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -1918,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -1947,10 +1984,10 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -1982,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -2014,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -2046,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -2078,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -2110,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -2142,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -2174,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -2206,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -2238,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -2267,10 +2304,10 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -2297,7 +2334,7 @@
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
     </row>
-    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -2324,7 +2361,7 @@
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
     </row>
-    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -2356,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -2388,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -2415,7 +2452,7 @@
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
     </row>
-    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -2534,7 +2571,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,10 +2886,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="72">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2881,8 +2918,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2908,8 +2945,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4196,6 +4233,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4206,16 +4253,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4258,43 +4295,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4339,58 +4376,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4415,24 +4452,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4458,7 +4495,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4489,7 +4526,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="78"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4518,7 +4555,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="78"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4547,7 +4584,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4576,7 +4613,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4605,7 +4642,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4634,7 +4671,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4665,7 +4702,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4694,7 +4731,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="78"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4723,7 +4760,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="78"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4752,7 +4789,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5986,10 +6023,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="72">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6018,8 +6055,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6045,8 +6082,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7333,6 +7370,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7343,16 +7390,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_VietGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_VietGlobal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="30" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,6 +711,30 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -732,34 +756,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1100,43 +1100,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1181,58 +1181,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1257,24 +1257,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1330,7 +1330,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="69" t="s">
+      <c r="V6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1389,7 +1389,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="70"/>
+      <c r="V7" s="78"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="70"/>
+      <c r="V8" s="78"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="70"/>
+      <c r="V10" s="78"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="70"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="69" t="s">
+      <c r="V12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1565,7 +1565,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="70"/>
+      <c r="V13" s="78"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="70"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="70"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="79"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2886,10 +2886,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="72" t="s">
+      <c r="V56" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="72">
+      <c r="W56" s="80">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2918,8 +2918,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
+      <c r="V57" s="81"/>
+      <c r="W57" s="81"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2945,8 +2945,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
+      <c r="V58" s="82"/>
+      <c r="W58" s="82"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4233,6 +4233,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4243,16 +4253,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4263,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4295,43 +4295,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4376,58 +4376,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4452,50 +4452,80 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="52">
+        <v>868183034573688</v>
+      </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="G6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>76</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="69" t="s">
+      <c r="V6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4506,27 +4536,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="68" t="s">
+        <v>81</v>
+      </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52">
+        <v>868183034515283</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="G7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="70"/>
+      <c r="V7" s="78"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4555,7 +4613,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="70"/>
+      <c r="V8" s="78"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4584,7 +4642,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4613,7 +4671,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="70"/>
+      <c r="V10" s="78"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4642,7 +4700,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="70"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4671,7 +4729,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="69" t="s">
+      <c r="V12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4702,7 +4760,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="70"/>
+      <c r="V13" s="78"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4731,7 +4789,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="70"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4760,7 +4818,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="70"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4789,7 +4847,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="79"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4940,7 +4998,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5121,7 +5179,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,7 +5499,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5708,7 +5766,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6023,10 +6081,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="72" t="s">
+      <c r="V56" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="72">
+      <c r="W56" s="80">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6055,8 +6113,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
+      <c r="V57" s="81"/>
+      <c r="W57" s="81"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6082,8 +6140,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
+      <c r="V58" s="82"/>
+      <c r="W58" s="82"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7370,6 +7428,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7380,16 +7448,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_VietGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_VietGlobal.xlsx
@@ -711,6 +711,36 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,40 +756,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1100,43 +1100,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1181,58 +1181,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1257,24 +1257,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1330,7 +1330,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1344,7 +1344,9 @@
       <c r="B7" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44154</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1391,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="78"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1418,7 +1420,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="78"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1447,7 +1449,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1476,7 +1478,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1505,7 +1507,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1536,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1565,7 +1567,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1594,7 +1596,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="78"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1625,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="78"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1654,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2886,10 +2888,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="72">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2918,8 +2920,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2945,8 +2947,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4233,6 +4235,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4243,16 +4255,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4295,43 +4297,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4376,58 +4378,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4452,24 +4454,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4525,7 +4527,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4539,7 +4541,9 @@
       <c r="B7" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44154</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -4584,7 +4588,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="78"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4613,7 +4617,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="78"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4642,7 +4646,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4671,7 +4675,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4700,7 +4704,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4729,7 +4733,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4760,7 +4764,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4789,7 +4793,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="78"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4818,7 +4822,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="78"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4847,7 +4851,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6081,10 +6085,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="72">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6113,8 +6117,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6140,8 +6144,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7428,6 +7432,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7438,16 +7452,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
